--- a/medicine/Handicap/NatBraille/NatBraille.xlsx
+++ b/medicine/Handicap/NatBraille/NatBraille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Natbraille est un logiciel libre de transcription automatique en texte braille, l'alphabet utilisé par les déficients visuels. Il permet de transcrire des documents divers (formats OpenOffice, texte brut, Microsoft Word + MathType) et peut traiter les mathématiques, le braille intégral et le braille abrégé. 
 Il est également capable de transcrire un document braille (intégral et mathématique) pour produire un document « en noir » c'est-à-dire en caractères lisibles par des personnes voyantes. Ce type d'outil permet par exemple de faciliter le travail d'accompagnement des élèves par l'équipe éducative dans le cadre scolaire.
@@ -513,7 +525,9 @@
           <t>Problématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le développement des outils numériques permet d'améliorer l'indépendance des personnes souffrant de déficience visuelle. L'utilisation d'un ordinateur est possible grâce à la synthèse vocale, aux plages ou terminaux braille qui permettent d'accéder directement aux textes affichés à l'écran. Les imprimantes braille (en) (embosseuses) rendent également possible la sortie en braille sur papier.
 Mais si l'accès à l'information couplée au développement des aides techniques adaptées améliore conditions de vie des non-voyants, la mise à disposition en ligne ne suffit pas s'ils ne sont pas rendus accessibles au préalable. Par exemple, le braille étant une écriture linéaire, tout contenu bi-dimensionnel va potentiellement poser problème (mathématiques, musique, tableaux, etc.).
@@ -549,7 +563,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les interactions de l'utilisateur avec le système sont minimisées : dans l'idéal, l'utilisateur se contente de donner un fichier source et obtient en retour un fichier transcrit.
 Le logiciel commence par convertir les documents sources dans un format interne spécial permettant un meilleur traitement des transcriptions. Il choisit ensuite les filtres de transcription nécessaires (fichiers XSL) et effectue une première transcription. Enfin, il réalise les opérations de post-traitement pour aboutir au fichier transcrit.
